--- a/.timesheet/TimeSheet.xlsx
+++ b/.timesheet/TimeSheet.xlsx
@@ -24,12 +24,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>1399/05/04</t>
   </si>
   <si>
     <t>شنبه</t>
+  </si>
+  <si>
+    <t>یکشنبه</t>
+  </si>
+  <si>
+    <t>دوشنبه</t>
+  </si>
+  <si>
+    <t>سه شنبه</t>
+  </si>
+  <si>
+    <t>1399/05/07</t>
   </si>
 </sst>
 </file>
@@ -65,11 +77,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -350,9 +363,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -374,6 +389,30 @@
         <v>0.71875</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/.timesheet/TimeSheet.xlsx
+++ b/.timesheet/TimeSheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>1399/05/04</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>1399/05/07</t>
+  </si>
+  <si>
+    <t>چهارشنبه</t>
   </si>
 </sst>
 </file>
@@ -79,10 +82,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -363,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
@@ -382,10 +385,10 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="2">
         <v>0.5</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="2">
         <v>0.71875</v>
       </c>
     </row>
@@ -406,11 +409,25 @@
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>0.58333333333333337</v>
       </c>
       <c r="D4" s="2">
         <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.70833333333333337</v>
       </c>
     </row>
   </sheetData>

--- a/.timesheet/TimeSheet.xlsx
+++ b/.timesheet/TimeSheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>1399/05/04</t>
   </si>
@@ -45,6 +45,27 @@
   </si>
   <si>
     <t>چهارشنبه</t>
+  </si>
+  <si>
+    <t>پنجشنبه</t>
+  </si>
+  <si>
+    <t>1399/05/08</t>
+  </si>
+  <si>
+    <t>جمعه</t>
+  </si>
+  <si>
+    <t>1399/05/09</t>
+  </si>
+  <si>
+    <t>1399/05/05</t>
+  </si>
+  <si>
+    <t>1399/05/06</t>
+  </si>
+  <si>
+    <t>شروع همکاری با داتین</t>
   </si>
 </sst>
 </file>
@@ -366,19 +387,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.5703125" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -391,18 +413,39 @@
       <c r="D1" s="2">
         <v>0.71875</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -410,13 +453,13 @@
         <v>5</v>
       </c>
       <c r="C4" s="1">
-        <v>0.58333333333333337</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D4" s="2">
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -428,6 +471,28 @@
       </c>
       <c r="D5" s="1">
         <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/.timesheet/TimeSheet.xlsx
+++ b/.timesheet/TimeSheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>1399/05/04</t>
   </si>
@@ -66,6 +66,18 @@
   </si>
   <si>
     <t>شروع همکاری با داتین</t>
+  </si>
+  <si>
+    <t>1399/05/10</t>
+  </si>
+  <si>
+    <t>1399/05/11</t>
+  </si>
+  <si>
+    <t>1399/05/12</t>
+  </si>
+  <si>
+    <t>1399/05/13</t>
   </si>
 </sst>
 </file>
@@ -387,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,6 +507,62 @@
         <v>10</v>
       </c>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/.timesheet/TimeSheet.xlsx
+++ b/.timesheet/TimeSheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>1399/05/04</t>
   </si>
@@ -78,6 +78,21 @@
   </si>
   <si>
     <t>1399/05/13</t>
+  </si>
+  <si>
+    <t>1399/05/14</t>
+  </si>
+  <si>
+    <t>1399/05/15</t>
+  </si>
+  <si>
+    <t>1399/05/16</t>
+  </si>
+  <si>
+    <t>تعطیل</t>
+  </si>
+  <si>
+    <t>1399/05/17</t>
   </si>
 </sst>
 </file>
@@ -399,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1">
         <v>0.33333333333333331</v>
@@ -490,7 +505,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1">
         <v>0.33333333333333331</v>
@@ -504,7 +519,10 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -512,7 +530,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1">
         <v>0.33333333333333331</v>
@@ -526,7 +544,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" s="1">
         <v>0.33333333333333331</v>
@@ -540,7 +558,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1">
         <v>0.33333333333333331</v>
@@ -554,13 +572,52 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" s="1">
         <v>0.33333333333333331</v>
       </c>
       <c r="D11" s="1">
         <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/.timesheet/TimeSheet.xlsx
+++ b/.timesheet/TimeSheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>1399/05/04</t>
   </si>
@@ -93,6 +93,12 @@
   </si>
   <si>
     <t>1399/05/17</t>
+  </si>
+  <si>
+    <t>1399/05/18</t>
+  </si>
+  <si>
+    <t>1399/05/19</t>
   </si>
 </sst>
 </file>
@@ -414,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,6 +626,31 @@
         <v>21</v>
       </c>
     </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/.timesheet/TimeSheet.xlsx
+++ b/.timesheet/TimeSheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
   <si>
     <t>1399/05/04</t>
   </si>
@@ -99,6 +99,42 @@
   </si>
   <si>
     <t>1399/05/19</t>
+  </si>
+  <si>
+    <t>1399/05/20</t>
+  </si>
+  <si>
+    <t>1399/05/21</t>
+  </si>
+  <si>
+    <t>1399/05/22</t>
+  </si>
+  <si>
+    <t>1399/05/23</t>
+  </si>
+  <si>
+    <t>1399/05/24</t>
+  </si>
+  <si>
+    <t>1399/05/25</t>
+  </si>
+  <si>
+    <t>1399/05/26</t>
+  </si>
+  <si>
+    <t>1399/05/27</t>
+  </si>
+  <si>
+    <t>1399/05/28</t>
+  </si>
+  <si>
+    <t>1399/05/29</t>
+  </si>
+  <si>
+    <t>1399/05/30</t>
+  </si>
+  <si>
+    <t>1399/05/01</t>
   </si>
 </sst>
 </file>
@@ -420,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,6 +687,165 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/.timesheet/TimeSheet.xlsx
+++ b/.timesheet/TimeSheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="39">
   <si>
     <t>1399/05/04</t>
   </si>
@@ -134,7 +134,13 @@
     <t>1399/05/30</t>
   </si>
   <si>
-    <t>1399/05/01</t>
+    <t>1399/05/31</t>
+  </si>
+  <si>
+    <t>1399/06/02</t>
+  </si>
+  <si>
+    <t>1399/06/01</t>
   </si>
 </sst>
 </file>
@@ -456,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,7 +531,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="D4" s="2">
-        <v>0.66666666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -844,6 +850,37 @@
       </c>
       <c r="B28" t="s">
         <v>36</v>
+      </c>
+      <c r="C28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.70833333333333337</v>
       </c>
     </row>
   </sheetData>
